--- a/retornos.xlsx
+++ b/retornos.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -625,6 +625,87 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-421549506</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>152262892521</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>kjhhhuhhiu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>wusgdhr</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>-421549506</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>152262892521</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>kjhhhuhhiu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>-421549506</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>152262892521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kjhhhuhhiu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>wusgdhri</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
